--- a/Masculinity_Data_Dictionary.xlsx
+++ b/Masculinity_Data_Dictionary.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stephanie\GA Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stephanie\GA Final Project\Masculinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0EFF103-8574-46AC-A114-2E6F4A6654C8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C824C465-1475-46B2-9A8A-9AFB834940B5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8745" xr2:uid="{17B072F3-1DFB-4E60-B900-748577D567B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cleaning needed" sheetId="2" r:id="rId1"/>
+    <sheet name="Dictionary" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cleaning needed'!$A$1:$F$98</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="163">
   <si>
     <t>StartDate</t>
   </si>
@@ -321,38 +325,6 @@
     <t>Definition</t>
   </si>
   <si>
-    <t>In general, how masculine or "manly" do you feel?
-Very masculine, Somewhat masculine, Not very masculine, Not at all masculine, No answer</t>
-  </si>
-  <si>
-    <t>How important is it to you that others see you as masculine?
-Very important, Somewhat important, Not too important, Not at all important, No answer</t>
-  </si>
-  <si>
-    <t>Where have you gotten your ideas about what it means to be a good man? (Select all that apply.) 
-Response = Father or father figure(s)</t>
-  </si>
-  <si>
-    <t>Where have you gotten your ideas about what it means to be a good man? (Select all that apply.) 
-Response = Mother or mother figure(s)</t>
-  </si>
-  <si>
-    <t>Where have you gotten your ideas about what it means to be a good man? (Select all that apply.) 
-Response = Friends</t>
-  </si>
-  <si>
-    <t>Where have you gotten your ideas about what it means to be a good man? (Select all that apply.) 
-Response = Other family members</t>
-  </si>
-  <si>
-    <t>Where have you gotten your ideas about what it means to be a good man? (Select all that apply.) 
-Response = Pop culture</t>
-  </si>
-  <si>
-    <t>Where have you gotten your ideas about what it means to be a good man? (Select all that apply.) 
-Response = Other</t>
-  </si>
-  <si>
     <t>Do you think that society puts pressure on men in a way that is unhealthy or bad for them?</t>
   </si>
   <si>
@@ -360,13 +332,202 @@
   </si>
   <si>
     <t>How often do you ask a friend for personal advice?</t>
+  </si>
+  <si>
+    <t>How often do you express physical affection to male friends, like hugging, rubbing shoulders?</t>
+  </si>
+  <si>
+    <t>How often do you cry?</t>
+  </si>
+  <si>
+    <t>How often do you get in a physical fight with another person?</t>
+  </si>
+  <si>
+    <t>How often do you have sexual relations with women, including anything from kissing to sex?</t>
+  </si>
+  <si>
+    <t>How often do you have sexual relations with men, including anything from kissing to sex?</t>
+  </si>
+  <si>
+    <t>How often do you watch sports of any kind?</t>
+  </si>
+  <si>
+    <t>How often do you work out?</t>
+  </si>
+  <si>
+    <t>How often do you see a therapist?</t>
+  </si>
+  <si>
+    <t>How often do you feel lonely or isolated</t>
+  </si>
+  <si>
+    <t>Response options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In general, how masculine or "manly" do you feel?
+</t>
+  </si>
+  <si>
+    <t>Very masculine, Somewhat masculine, Not very masculine, Not at all masculine, No answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How important is it to you that others see you as masculine?
+</t>
+  </si>
+  <si>
+    <t>Very important, Somewhat important, Not too important, Not at all important, No answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where have you gotten your ideas about what it means to be a good man? (Select all that apply.) 
+</t>
+  </si>
+  <si>
+    <t>Response = Father or father figure(s)</t>
+  </si>
+  <si>
+    <t>Response = Mother or mother figure(s)</t>
+  </si>
+  <si>
+    <t>Response = Friends</t>
+  </si>
+  <si>
+    <t>Response = Other family members</t>
+  </si>
+  <si>
+    <t>Response = Pop culture</t>
+  </si>
+  <si>
+    <t>Response = Other</t>
+  </si>
+  <si>
+    <t>Yes, No, No answer</t>
+  </si>
+  <si>
+    <t>Often, Sometimes, Rarely, Never but open to it, Never and not open to it</t>
+  </si>
+  <si>
+    <t>Which of the following do you worry about on a daily or near daily basis? (Select all that apply)</t>
+  </si>
+  <si>
+    <t>Your height</t>
+  </si>
+  <si>
+    <t>Your weight</t>
+  </si>
+  <si>
+    <t>Your physique</t>
+  </si>
+  <si>
+    <t>Your hair or hairline</t>
+  </si>
+  <si>
+    <t>Appearance of your genitalia</t>
+  </si>
+  <si>
+    <t>Your clothing or style</t>
+  </si>
+  <si>
+    <t>Sexual performance or amount of sex</t>
+  </si>
+  <si>
+    <t>Your mental health</t>
+  </si>
+  <si>
+    <t>Your physical health</t>
+  </si>
+  <si>
+    <t>Your finances, including your current or future assets or debt</t>
+  </si>
+  <si>
+    <t>Your ability to provide for your family, current or anticipated</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Which of the following categories best describes your employment status?</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employed working full time, Employed working part time, Not employed-student, Not employed-retired, Not employed- looking for work, Not employed NOT looking for work </t>
+  </si>
+  <si>
+    <t>Cleaning needed</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Need to fill 2 null vals</t>
+  </si>
+  <si>
+    <t>Need to fill 20 null vals</t>
+  </si>
+  <si>
+    <t>Not interesting/ relevant</t>
+  </si>
+  <si>
+    <t>Weird dummy-like columns, not relevant</t>
+  </si>
+  <si>
+    <t>Unsure</t>
+  </si>
+  <si>
+    <t>me_too_romantic_behavior</t>
+  </si>
+  <si>
+    <t>Need to filter on respondents who answered this question to make predictions on it (742)</t>
+  </si>
+  <si>
+    <t>Use (Y/N?)</t>
+  </si>
+  <si>
+    <t>Num N/A</t>
+  </si>
+  <si>
+    <t>Drop NA</t>
+  </si>
+  <si>
+    <t>If no answer for all, then drop line?</t>
+  </si>
+  <si>
+    <t>In which of the following ways would you say it's an advantage to be a man at work right now?</t>
+  </si>
+  <si>
+    <t>In which of the following ways would you say it's a disadvantage to be a man at work right now?</t>
+  </si>
+  <si>
+    <t>Have you seen or heard of a secual harassment incident at your work? If so, how did you respond?</t>
+  </si>
+  <si>
+    <t>How much have you heard about the #MeToo movement?</t>
+  </si>
+  <si>
+    <t>Do you typically feel as though you're expected to make the first move in romantic relationships?</t>
+  </si>
+  <si>
+    <t>How often do you try to be the one who pays when on a date?</t>
+  </si>
+  <si>
+    <t>If using, would need to filter on always or often above</t>
+  </si>
+  <si>
+    <t>When you want to be physically intimate with someone how do you gauge their interest?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,13 +543,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -403,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -413,6 +596,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -728,521 +920,1895 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B39A8F8-4641-4AC1-BC63-6701DACE289A}">
+  <dimension ref="A1:F98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="3" width="4.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.140625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="2">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F98" xr:uid="{6DBECCEF-8E6B-4EFC-A4DA-D927E8C08114}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA34643-17AE-476D-9DDF-572304A537E4}">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="135.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="38" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>

--- a/Masculinity_Data_Dictionary.xlsx
+++ b/Masculinity_Data_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stephanie\GA Final Project\Masculinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C824C465-1475-46B2-9A8A-9AFB834940B5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AD13AF84-465C-4D5C-964A-B69791B516C2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8745" xr2:uid="{17B072F3-1DFB-4E60-B900-748577D567B2}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="170">
   <si>
     <t>StartDate</t>
   </si>
@@ -496,18 +496,12 @@
     <t>Drop NA</t>
   </si>
   <si>
-    <t>If no answer for all, then drop line?</t>
-  </si>
-  <si>
     <t>In which of the following ways would you say it's an advantage to be a man at work right now?</t>
   </si>
   <si>
     <t>In which of the following ways would you say it's a disadvantage to be a man at work right now?</t>
   </si>
   <si>
-    <t>Have you seen or heard of a secual harassment incident at your work? If so, how did you respond?</t>
-  </si>
-  <si>
     <t>How much have you heard about the #MeToo movement?</t>
   </si>
   <si>
@@ -521,6 +515,33 @@
   </si>
   <si>
     <t>When you want to be physically intimate with someone how do you gauge their interest?</t>
+  </si>
+  <si>
+    <t>1- Create new col to flag no answer for any col</t>
+  </si>
+  <si>
+    <t>2-Create new col to flag no answer for any col</t>
+  </si>
+  <si>
+    <t>3- Create new col to flag no answer for any col</t>
+  </si>
+  <si>
+    <t>4- Create new col to flag no answer for any col</t>
+  </si>
+  <si>
+    <t>Have you seen or heard of a sexual harassment incident at your work? If so, how did you respond?</t>
+  </si>
+  <si>
+    <t>Only answered by a small subset of respondents</t>
+  </si>
+  <si>
+    <t>5- Create new col to flag no answer for any col</t>
+  </si>
+  <si>
+    <t>6- Create new col to flag no answer for any col</t>
+  </si>
+  <si>
+    <t>7- Create new col to flag no answer for any col</t>
   </si>
 </sst>
 </file>
@@ -923,13 +944,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B39A8F8-4641-4AC1-BC63-6701DACE289A}">
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="3" width="4.140625" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="68.140625" style="2" customWidth="1"/>
@@ -1010,7 +1031,7 @@
         <v>140</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>115</v>
@@ -1027,7 +1048,7 @@
         <v>140</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>115</v>
@@ -1044,7 +1065,7 @@
         <v>140</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>115</v>
@@ -1061,7 +1082,7 @@
         <v>140</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>115</v>
@@ -1078,7 +1099,7 @@
         <v>140</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>115</v>
@@ -1095,7 +1116,7 @@
         <v>140</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>115</v>
@@ -1316,7 +1337,7 @@
         <v>140</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>124</v>
@@ -1333,7 +1354,7 @@
         <v>140</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>126</v>
@@ -1347,7 +1368,7 @@
         <v>140</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>128</v>
@@ -1361,7 +1382,7 @@
         <v>140</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>127</v>
@@ -1375,7 +1396,7 @@
         <v>140</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>129</v>
@@ -1389,7 +1410,7 @@
         <v>140</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>130</v>
@@ -1403,7 +1424,7 @@
         <v>140</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>131</v>
@@ -1417,7 +1438,7 @@
         <v>140</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>132</v>
@@ -1431,7 +1452,7 @@
         <v>140</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>133</v>
@@ -1445,7 +1466,7 @@
         <v>140</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>134</v>
@@ -1459,7 +1480,7 @@
         <v>140</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>135</v>
@@ -1473,7 +1494,7 @@
         <v>140</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>136</v>
@@ -1498,10 +1519,10 @@
         <v>35</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1509,7 +1530,7 @@
         <v>36</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1517,7 +1538,7 @@
         <v>37</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1525,7 +1546,7 @@
         <v>38</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1533,7 +1554,7 @@
         <v>39</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1541,7 +1562,7 @@
         <v>40</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1549,7 +1570,7 @@
         <v>41</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1557,7 +1578,7 @@
         <v>42</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1565,10 +1586,10 @@
         <v>43</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1576,7 +1597,7 @@
         <v>44</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1584,7 +1605,7 @@
         <v>45</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1592,7 +1613,7 @@
         <v>46</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1600,46 +1621,67 @@
         <v>47</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="D50" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="E50" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="52" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="D52" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="53" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="54" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="D54" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="55" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="D55" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="56" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="D56" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="57" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
@@ -1648,13 +1690,16 @@
       <c r="B57" s="7" t="s">
         <v>139</v>
       </c>
+      <c r="E57" s="2" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="58" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1673,7 +1718,7 @@
         <v>58</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1685,7 +1730,7 @@
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1697,7 +1742,7 @@
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1709,7 +1754,7 @@
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1721,7 +1766,7 @@
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1733,7 +1778,7 @@
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1745,7 +1790,7 @@
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1757,7 +1802,7 @@
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1769,7 +1814,7 @@
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1779,8 +1824,11 @@
       <c r="B69" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="D69" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="E69" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1790,6 +1838,9 @@
       <c r="B70" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="D70" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="71" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
@@ -1798,6 +1849,9 @@
       <c r="B71" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="D71" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="72" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
@@ -1806,6 +1860,9 @@
       <c r="B72" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="D72" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="73" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
@@ -1814,6 +1871,9 @@
       <c r="B73" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="D73" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="74" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -1822,6 +1882,9 @@
       <c r="B74" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="D74" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="75" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
@@ -1830,6 +1893,9 @@
       <c r="B75" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="D75" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="76" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
@@ -1838,6 +1904,9 @@
       <c r="B76" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="D76" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="77" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
@@ -1846,6 +1915,9 @@
       <c r="B77" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="D77" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="78" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
@@ -1854,6 +1926,9 @@
       <c r="B78" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="D78" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="79" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
@@ -1950,101 +2025,110 @@
       </c>
     </row>
     <row r="90" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="C90" s="7"/>
+      <c r="D90" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="C91" s="7"/>
+      <c r="D91" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="C92" s="7"/>
+      <c r="D92" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="C93" s="7"/>
+      <c r="D93" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="C94" s="7"/>
+      <c r="D94" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="C95" s="7"/>
+      <c r="D95" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="C96" s="7"/>
+      <c r="D96" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="C97" s="7"/>
+      <c r="D97" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="98" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="C98" s="7"/>
+      <c r="D98" s="7" t="s">
         <v>148</v>
       </c>
     </row>

--- a/Masculinity_Data_Dictionary.xlsx
+++ b/Masculinity_Data_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stephanie\GA Final Project\Masculinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AD13AF84-465C-4D5C-964A-B69791B516C2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{67ED6E1C-17B5-4ED4-AEDE-A907640EC8F2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8745" xr2:uid="{17B072F3-1DFB-4E60-B900-748577D567B2}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Dictionary" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cleaning needed'!$A$1:$F$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cleaning needed'!$A$1:$I$98</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="182">
   <si>
     <t>StartDate</t>
   </si>
@@ -542,6 +542,42 @@
   </si>
   <si>
     <t>7- Create new col to flag no answer for any col</t>
+  </si>
+  <si>
+    <t>col num</t>
+  </si>
+  <si>
+    <t>who saw?</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Subset- employed</t>
+  </si>
+  <si>
+    <t>questionnum</t>
+  </si>
+  <si>
+    <t>Check all cols, fill those with no answer with no children</t>
+  </si>
+  <si>
+    <t>Fill NA with Other</t>
+  </si>
+  <si>
+    <t>Drop NA or fill with mode</t>
+  </si>
+  <si>
+    <t>Drop NA?</t>
+  </si>
+  <si>
+    <t>Either Drop NA or fill with No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split into Employed DF (880) and Not employed DF(732), drop No Answer </t>
+  </si>
+  <si>
+    <t>Drop column completely</t>
   </si>
 </sst>
 </file>
@@ -581,7 +617,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,6 +627,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -626,6 +674,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -942,1198 +999,2058 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B39A8F8-4641-4AC1-BC63-6701DACE289A}">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD23"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="3" width="4.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.140625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="6" width="4.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="68.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>140</v>
+      <c r="B4" s="2">
+        <v>3</v>
       </c>
       <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="2">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>140</v>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>140</v>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>140</v>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>140</v>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>140</v>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>140</v>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>140</v>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="B12" s="8">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="H12" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="I12" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="B13" s="8">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8">
+        <v>7</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="H13" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="I13" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="B14" s="8">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8">
+        <v>7</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="H14" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="I14" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="B15" s="8">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8">
+        <v>7</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="H15" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="I15" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="B16" s="8">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8">
+        <v>7</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="H16" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="I16" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="B17" s="8">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8">
+        <v>7</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="H17" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="I17" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="B18" s="8">
+        <v>17</v>
+      </c>
+      <c r="C18" s="8">
+        <v>7</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="H18" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="I18" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="B19" s="8">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8">
+        <v>7</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="H19" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="I19" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="B20" s="8">
+        <v>19</v>
+      </c>
+      <c r="C20" s="8">
+        <v>7</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="H20" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="I20" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="B21" s="8">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8">
+        <v>7</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="H21" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="I21" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="B22" s="8">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8">
+        <v>7</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="H22" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="I22" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="B23" s="8">
+        <v>22</v>
+      </c>
+      <c r="C23" s="8">
+        <v>7</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="H23" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="I23" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>140</v>
+      <c r="B24" s="2">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2">
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>140</v>
+      <c r="B25" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="H25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>140</v>
+      <c r="B26" s="2">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2">
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="H26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>140</v>
+      <c r="B27" s="2">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2">
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="H27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>140</v>
+      <c r="B28" s="2">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2">
+        <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="H28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>140</v>
+      <c r="B29" s="2">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="H29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>140</v>
+      <c r="B30" s="2">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2">
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="H30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>140</v>
+      <c r="B31" s="2">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2">
+        <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="H31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>140</v>
+      <c r="B32" s="2">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="H32" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>140</v>
+      <c r="B33" s="2">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2">
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="H33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>140</v>
+      <c r="B34" s="2">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2">
+        <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="H34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>140</v>
+      <c r="B35" s="2">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2">
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="H35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="B36" s="10">
+        <v>35</v>
+      </c>
+      <c r="C36" s="10">
+        <v>9</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H36" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="I36" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="B37" s="2">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2">
+        <v>10</v>
+      </c>
       <c r="D37" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B38" s="2">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2">
+        <v>10</v>
+      </c>
       <c r="D38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="B39" s="2">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2">
+        <v>10</v>
+      </c>
       <c r="D39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="B40" s="2">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2">
+        <v>10</v>
+      </c>
       <c r="D40" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="B41" s="2">
+        <v>40</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10</v>
+      </c>
       <c r="D41" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="B42" s="2">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2">
+        <v>10</v>
+      </c>
       <c r="D42" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="B43" s="2">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2">
+        <v>10</v>
+      </c>
       <c r="D43" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="B44" s="2">
+        <v>43</v>
+      </c>
+      <c r="C44" s="2">
+        <v>10</v>
+      </c>
       <c r="D44" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="B45" s="2">
+        <v>44</v>
+      </c>
+      <c r="C45" s="2">
+        <v>11</v>
+      </c>
       <c r="D45" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="B46" s="2">
+        <v>45</v>
+      </c>
+      <c r="C46" s="2">
+        <v>11</v>
+      </c>
       <c r="D46" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B47" s="2">
+        <v>46</v>
+      </c>
+      <c r="C47" s="2">
+        <v>11</v>
+      </c>
       <c r="D47" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H47" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="B48" s="2">
+        <v>47</v>
+      </c>
+      <c r="C48" s="2">
+        <v>11</v>
+      </c>
       <c r="D48" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="B49" s="2">
+        <v>48</v>
+      </c>
+      <c r="C49" s="2">
+        <v>11</v>
+      </c>
       <c r="D49" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="B50" s="2">
+        <v>49</v>
+      </c>
+      <c r="C50" s="2">
+        <v>12</v>
+      </c>
       <c r="D50" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="B51" s="2">
+        <v>50</v>
+      </c>
+      <c r="C51" s="2">
+        <v>12</v>
+      </c>
       <c r="D51" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="B52" s="2">
+        <v>51</v>
+      </c>
+      <c r="C52" s="2">
+        <v>12</v>
+      </c>
       <c r="D52" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="B53" s="2">
+        <v>52</v>
+      </c>
+      <c r="C53" s="2">
+        <v>12</v>
+      </c>
       <c r="D53" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H53" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="B54" s="2">
+        <v>53</v>
+      </c>
+      <c r="C54" s="2">
+        <v>12</v>
+      </c>
       <c r="D54" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="B55" s="2">
+        <v>54</v>
+      </c>
+      <c r="C55" s="2">
+        <v>12</v>
+      </c>
       <c r="D55" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H55" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="B56" s="2">
+        <v>55</v>
+      </c>
+      <c r="C56" s="2">
+        <v>12</v>
+      </c>
       <c r="D56" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="7">
+        <v>56</v>
+      </c>
+      <c r="C57" s="7">
+        <v>13</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="G57" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="B58" s="2">
+        <v>57</v>
+      </c>
+      <c r="C58" s="2">
+        <v>14</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="6">
+        <v>58</v>
+      </c>
+      <c r="C59" s="6">
+        <v>15</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="B60" s="2">
+        <v>59</v>
+      </c>
+      <c r="C60" s="2">
+        <v>17</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D61" s="5"/>
+      <c r="B61" s="2">
+        <v>60</v>
+      </c>
+      <c r="C61" s="2">
+        <v>18</v>
+      </c>
       <c r="E61" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="7">
+        <v>61</v>
+      </c>
+      <c r="C62" s="7">
+        <v>19</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7" t="s">
+      <c r="F62" s="7"/>
+      <c r="G62" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="7">
+        <v>62</v>
+      </c>
+      <c r="C63" s="7">
+        <v>19</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7" t="s">
+      <c r="F63" s="7"/>
+      <c r="G63" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="7">
+        <v>63</v>
+      </c>
+      <c r="C64" s="7">
+        <v>19</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7" t="s">
+      <c r="F64" s="7"/>
+      <c r="G64" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="7">
+        <v>64</v>
+      </c>
+      <c r="C65" s="7">
+        <v>19</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7" t="s">
+      <c r="F65" s="7"/>
+      <c r="G65" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="7">
+        <v>65</v>
+      </c>
+      <c r="C66" s="7">
+        <v>19</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7" t="s">
+      <c r="F66" s="7"/>
+      <c r="G66" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="7">
+        <v>66</v>
+      </c>
+      <c r="C67" s="7">
+        <v>19</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7" t="s">
+      <c r="F67" s="7"/>
+      <c r="G67" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="7">
+        <v>67</v>
+      </c>
+      <c r="C68" s="7">
+        <v>19</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7" t="s">
+      <c r="F68" s="7"/>
+      <c r="G68" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="B69" s="2">
+        <v>68</v>
+      </c>
+      <c r="C69" s="2">
+        <v>20</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D70" s="2" t="s">
+      <c r="B70" s="2">
+        <v>69</v>
+      </c>
+      <c r="C70" s="2">
+        <v>20</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="B71" s="2">
+        <v>70</v>
+      </c>
+      <c r="C71" s="2">
+        <v>20</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="B72" s="2">
+        <v>71</v>
+      </c>
+      <c r="C72" s="2">
+        <v>20</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="B73" s="2">
+        <v>72</v>
+      </c>
+      <c r="C73" s="2">
+        <v>20</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="B74" s="2">
+        <v>73</v>
+      </c>
+      <c r="C74" s="2">
+        <v>20</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="B75" s="2">
+        <v>74</v>
+      </c>
+      <c r="C75" s="2">
+        <v>21</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="B76" s="2">
+        <v>75</v>
+      </c>
+      <c r="C76" s="2">
+        <v>21</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="B77" s="2">
+        <v>76</v>
+      </c>
+      <c r="C77" s="2">
+        <v>21</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="B78" s="2">
+        <v>77</v>
+      </c>
+      <c r="C78" s="2">
+        <v>21</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="6">
+        <v>78</v>
+      </c>
+      <c r="C79" s="6">
+        <v>22</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="2">
+        <v>79</v>
+      </c>
+      <c r="C80" s="2">
+        <v>24</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="2">
+        <v>80</v>
+      </c>
+      <c r="C81" s="2">
+        <v>25</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="2">
+        <v>81</v>
+      </c>
+      <c r="C82" s="2">
+        <v>25</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="2">
+        <v>82</v>
+      </c>
+      <c r="C83" s="2">
+        <v>25</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="2">
+        <v>83</v>
+      </c>
+      <c r="C84" s="2">
+        <v>26</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="2">
+        <v>84</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="2">
+        <v>85</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="2">
+        <v>86</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="B88" s="2">
+        <v>87</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="B89" s="2">
+        <v>88</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="7">
+        <v>89</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7" t="s">
+      <c r="F90" s="7"/>
+      <c r="G90" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="7">
+        <v>90</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7" t="s">
+      <c r="F91" s="7"/>
+      <c r="G91" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="7">
+        <v>91</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7" t="s">
+      <c r="F92" s="7"/>
+      <c r="G92" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="7">
+        <v>92</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7" t="s">
+      <c r="F93" s="7"/>
+      <c r="G93" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="7">
+        <v>93</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7" t="s">
+      <c r="F94" s="7"/>
+      <c r="G94" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="7">
+        <v>94</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7" t="s">
+      <c r="F95" s="7"/>
+      <c r="G95" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="7">
+        <v>95</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7" t="s">
+      <c r="F96" s="7"/>
+      <c r="G96" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="7">
+        <v>96</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7" t="s">
+      <c r="F97" s="7"/>
+      <c r="G97" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="7">
+        <v>97</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7" t="s">
+      <c r="F98" s="7"/>
+      <c r="G98" s="7" t="s">
         <v>148</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F98" xr:uid="{6DBECCEF-8E6B-4EFC-A4DA-D927E8C08114}"/>
+  <autoFilter ref="A1:I98" xr:uid="{6DBECCEF-8E6B-4EFC-A4DA-D927E8C08114}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Masculinity_Data_Dictionary.xlsx
+++ b/Masculinity_Data_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stephanie\GA Final Project\Masculinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{67ED6E1C-17B5-4ED4-AEDE-A907640EC8F2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8561A27A-0274-41F0-99E7-0E603329D558}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8745" xr2:uid="{17B072F3-1DFB-4E60-B900-748577D567B2}"/>
   </bookViews>
@@ -1001,18 +1001,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B39A8F8-4641-4AC1-BC63-6701DACE289A}">
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="6" width="4.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="68.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Masculinity_Data_Dictionary.xlsx
+++ b/Masculinity_Data_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stephanie\GA Final Project\Masculinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8561A27A-0274-41F0-99E7-0E603329D558}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6C18E545-01AD-4405-9A10-178F2B1F980C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8745" xr2:uid="{17B072F3-1DFB-4E60-B900-748577D567B2}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="183">
   <si>
     <t>StartDate</t>
   </si>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>Drop column completely</t>
+  </si>
+  <si>
+    <t>men_more_praise</t>
   </si>
 </sst>
 </file>
@@ -643,7 +646,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -651,11 +654,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -683,6 +704,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -999,11 +1026,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B39A8F8-4641-4AC1-BC63-6701DACE289A}">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,7 +1039,7 @@
     <col min="2" max="3" width="3.7109375" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="6" width="4.140625" customWidth="1"/>
-    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="7" max="7" width="65.5703125" customWidth="1"/>
     <col min="8" max="8" width="68.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2007,7 +2034,7 @@
     </row>
     <row r="41" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="B41" s="2">
         <v>40</v>
@@ -2066,22 +2093,24 @@
       </c>
     </row>
     <row r="44" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="11">
         <v>43</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="11">
         <v>10</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2165,7 +2194,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -2185,27 +2214,31 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="12">
         <v>49</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="12">
         <v>12</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" s="12" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+    </row>
+    <row r="51" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -2225,7 +2258,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -2245,7 +2278,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -2265,7 +2298,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -2285,7 +2318,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -2305,7 +2338,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
@@ -2325,7 +2358,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>55</v>
       </c>
@@ -2348,7 +2381,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
@@ -2365,7 +2398,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>77</v>
       </c>
@@ -2385,7 +2418,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
@@ -2399,7 +2432,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
@@ -2417,7 +2450,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>60</v>
       </c>
@@ -2436,7 +2469,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>61</v>
       </c>
@@ -2455,7 +2488,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>62</v>
       </c>

--- a/Masculinity_Data_Dictionary.xlsx
+++ b/Masculinity_Data_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stephanie\GA Final Project\Masculinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6C18E545-01AD-4405-9A10-178F2B1F980C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A78E24CF-F402-41BF-AF2F-48C1F566972B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8745" xr2:uid="{17B072F3-1DFB-4E60-B900-748577D567B2}"/>
   </bookViews>
@@ -1029,8 +1029,8 @@
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Masculinity_Data_Dictionary.xlsx
+++ b/Masculinity_Data_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stephanie\GA Final Project\Masculinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A78E24CF-F402-41BF-AF2F-48C1F566972B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3AF6900E-6A3E-4CB6-8EFE-6C2B9E32A312}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8745" xr2:uid="{17B072F3-1DFB-4E60-B900-748577D567B2}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="188">
   <si>
     <t>StartDate</t>
   </si>
@@ -466,12 +466,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Need to fill 2 null vals</t>
-  </si>
-  <si>
-    <t>Need to fill 20 null vals</t>
-  </si>
-  <si>
     <t>Not interesting/ relevant</t>
   </si>
   <si>
@@ -511,9 +505,6 @@
     <t>How often do you try to be the one who pays when on a date?</t>
   </si>
   <si>
-    <t>If using, would need to filter on always or often above</t>
-  </si>
-  <si>
     <t>When you want to be physically intimate with someone how do you gauge their interest?</t>
   </si>
   <si>
@@ -559,35 +550,59 @@
     <t>questionnum</t>
   </si>
   <si>
-    <t>Check all cols, fill those with no answer with no children</t>
-  </si>
-  <si>
-    <t>Fill NA with Other</t>
-  </si>
-  <si>
-    <t>Drop NA or fill with mode</t>
-  </si>
-  <si>
-    <t>Drop NA?</t>
-  </si>
-  <si>
-    <t>Either Drop NA or fill with No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split into Employed DF (880) and Not employed DF(732), drop No Answer </t>
-  </si>
-  <si>
     <t>Drop column completely</t>
   </si>
   <si>
     <t>men_more_praise</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>Fill with mean</t>
+  </si>
+  <si>
+    <t>Drop NA, get dummies</t>
+  </si>
+  <si>
+    <t>Split into Employed DF (880) and Not employed DF(732), drop No Answer. Include this question in larger set, exclude from employed subset</t>
+  </si>
+  <si>
+    <t>me_too_awareness</t>
+  </si>
+  <si>
+    <t>Drop No Answer, get dummies</t>
+  </si>
+  <si>
+    <t>Fill NA with No</t>
+  </si>
+  <si>
+    <t>Fill NA with mode, get dummies</t>
+  </si>
+  <si>
+    <t>Fill NA with Other, get dummies</t>
+  </si>
+  <si>
+    <t>Fill NA with No children, get dummies</t>
+  </si>
+  <si>
+    <t>Fill No Answer with other, get dummies</t>
+  </si>
+  <si>
+    <t>Use to fill region, but don't use in model</t>
+  </si>
+  <si>
+    <t>Use State to fill NA with appropriate region</t>
+  </si>
+  <si>
+    <t>Drop NA, map 1-4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,14 +612,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -688,13 +695,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -710,6 +714,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1026,19 +1033,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B39A8F8-4641-4AC1-BC63-6701DACE289A}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="4.140625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="65.5703125" customWidth="1"/>
     <col min="8" max="8" width="68.140625" style="2" customWidth="1"/>
   </cols>
@@ -1048,19 +1056,19 @@
         <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>142</v>
@@ -1072,7 +1080,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1080,10 +1088,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1091,7 +1099,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1105,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>140</v>
@@ -1114,7 +1122,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>111</v>
@@ -1134,13 +1142,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>113</v>
@@ -1149,7 +1157,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1160,13 +1168,13 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>115</v>
@@ -1175,7 +1183,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1186,13 +1194,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>115</v>
@@ -1201,7 +1209,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1212,13 +1220,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>115</v>
@@ -1227,7 +1235,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1238,13 +1246,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>115</v>
@@ -1253,7 +1261,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1264,13 +1272,13 @@
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>115</v>
@@ -1279,7 +1287,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1290,13 +1298,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>115</v>
@@ -1305,319 +1313,319 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>11</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>5</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H12" s="9" t="s">
+      <c r="D12" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>12</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>7</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H13" s="8" t="s">
+      <c r="D13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>13</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>7</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H14" s="8" t="s">
+      <c r="D14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>14</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>7</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H15" s="8" t="s">
+      <c r="D15" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>15</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>7</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H16" s="8" t="s">
+      <c r="D16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>16</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>7</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H17" s="8" t="s">
+      <c r="D17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>17</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>7</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H18" s="8" t="s">
+      <c r="D18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>18</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>7</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H19" s="8" t="s">
+      <c r="D19" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>19</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>7</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H20" s="8" t="s">
+      <c r="D20" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>20</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>7</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H21" s="8" t="s">
+      <c r="D21" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>21</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>7</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H22" s="8" t="s">
+      <c r="D22" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>22</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>7</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H23" s="8" t="s">
+      <c r="D23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1628,13 +1636,13 @@
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>124</v>
@@ -1643,7 +1651,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -1654,13 +1662,13 @@
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>124</v>
@@ -1669,7 +1677,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1680,13 +1688,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>124</v>
@@ -1695,7 +1703,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -1706,13 +1714,13 @@
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>124</v>
@@ -1721,7 +1729,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -1732,13 +1740,13 @@
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>124</v>
@@ -1747,7 +1755,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1758,13 +1766,13 @@
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>124</v>
@@ -1773,7 +1781,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -1784,13 +1792,13 @@
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>124</v>
@@ -1799,7 +1807,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -1810,13 +1818,13 @@
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>124</v>
@@ -1825,7 +1833,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -1836,13 +1844,13 @@
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>124</v>
@@ -1851,7 +1859,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -1862,13 +1870,13 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>124</v>
@@ -1877,7 +1885,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -1888,13 +1896,13 @@
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>124</v>
@@ -1903,7 +1911,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -1914,13 +1922,13 @@
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>124</v>
@@ -1929,30 +1937,30 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:9" s="9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <v>35</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <v>9</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="H36" s="10" t="s">
+      <c r="D36" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -1963,16 +1971,16 @@
         <v>10</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -1983,16 +1991,16 @@
         <v>10</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -2003,16 +2011,16 @@
         <v>10</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -2023,18 +2031,18 @@
         <v>10</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="B41" s="2">
         <v>40</v>
@@ -2043,16 +2051,16 @@
         <v>10</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -2063,16 +2071,16 @@
         <v>10</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -2083,38 +2091,38 @@
         <v>10</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <v>43</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="10">
         <v>10</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -2125,16 +2133,16 @@
         <v>11</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -2145,16 +2153,16 @@
         <v>11</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -2165,16 +2173,16 @@
         <v>11</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -2185,16 +2193,16 @@
         <v>11</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -2205,40 +2213,40 @@
         <v>11</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="11">
+        <v>49</v>
+      </c>
+      <c r="C50" s="11">
+        <v>12</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="12">
-        <v>49</v>
-      </c>
-      <c r="C50" s="12">
-        <v>12</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-    </row>
-    <row r="51" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H50" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+    </row>
+    <row r="51" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -2249,16 +2257,16 @@
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -2269,16 +2277,16 @@
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -2289,16 +2297,16 @@
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -2309,16 +2317,16 @@
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -2329,16 +2337,16 @@
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
@@ -2349,41 +2357,41 @@
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="6">
         <v>56</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="6">
         <v>13</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E57" s="7" t="s">
+      <c r="D57" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>139</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="B58" s="2">
         <v>57</v>
@@ -2392,30 +2400,33 @@
         <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="5">
         <v>58</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>15</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>173</v>
+      <c r="D59" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>143</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,8 +2439,11 @@
       <c r="C60" s="2">
         <v>17</v>
       </c>
+      <c r="G60" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H60" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2445,145 +2459,147 @@
       <c r="E61" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G61" s="5"/>
+      <c r="G61" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="H61" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="6">
         <v>61</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="6">
         <v>19</v>
       </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7" t="s">
+      <c r="D62" s="6"/>
+      <c r="E62" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+      <c r="F62" s="6"/>
+      <c r="G62" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="6">
         <v>62</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="6">
         <v>19</v>
       </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7" t="s">
+      <c r="D63" s="6"/>
+      <c r="E63" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+      <c r="F63" s="6"/>
+      <c r="G63" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="6">
         <v>63</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="6">
         <v>19</v>
       </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7" t="s">
+      <c r="D64" s="6"/>
+      <c r="E64" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="F64" s="6"/>
+      <c r="G64" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="6">
         <v>64</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="6">
         <v>19</v>
       </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7" t="s">
+      <c r="D65" s="6"/>
+      <c r="E65" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+      <c r="F65" s="6"/>
+      <c r="G65" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="6">
         <v>65</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="6">
         <v>19</v>
       </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7" t="s">
+      <c r="D66" s="6"/>
+      <c r="E66" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+      <c r="F66" s="6"/>
+      <c r="G66" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="6">
         <v>66</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="6">
         <v>19</v>
       </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7" t="s">
+      <c r="D67" s="6"/>
+      <c r="E67" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+      <c r="F67" s="6"/>
+      <c r="G67" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="6">
         <v>67</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="6">
         <v>19</v>
       </c>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7" t="s">
+      <c r="D68" s="6"/>
+      <c r="E68" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F68" s="6"/>
+      <c r="G68" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
@@ -2597,13 +2613,13 @@
         <v>140</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
@@ -2617,10 +2633,10 @@
         <v>140</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
@@ -2634,10 +2650,10 @@
         <v>140</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
@@ -2651,10 +2667,10 @@
         <v>140</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
@@ -2668,10 +2684,10 @@
         <v>140</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
@@ -2685,10 +2701,10 @@
         <v>140</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
@@ -2702,10 +2718,10 @@
         <v>140</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
@@ -2719,10 +2735,10 @@
         <v>140</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
@@ -2736,10 +2752,10 @@
         <v>140</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
@@ -2753,25 +2769,25 @@
         <v>140</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B79" s="6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" s="5">
         <v>78</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="5">
         <v>22</v>
       </c>
-      <c r="D79" s="6"/>
+      <c r="D79" s="5"/>
       <c r="E79" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2788,78 +2804,80 @@
         <v>140</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="6" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="6">
         <v>80</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="6">
         <v>25</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="E81" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="6" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="6">
         <v>81</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="6">
         <v>25</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="E82" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="6" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="6">
         <v>82</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="6">
         <v>25</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="E83" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="6">
         <v>83</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="6">
         <v>26</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D84" s="6"/>
+      <c r="E84" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
@@ -2870,10 +2888,10 @@
         <v>140</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
@@ -2884,10 +2902,10 @@
         <v>140</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
@@ -2898,10 +2916,10 @@
         <v>140</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>86</v>
       </c>
@@ -2912,10 +2930,10 @@
         <v>140</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>87</v>
       </c>
@@ -2926,164 +2944,173 @@
         <v>140</v>
       </c>
       <c r="G89" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="6">
+        <v>89</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="6">
+        <v>90</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90" s="7">
-        <v>89</v>
-      </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7" t="s">
+    <row r="92" spans="1:7" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="6">
+        <v>91</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7" t="s">
+      <c r="F92" s="6"/>
+      <c r="G92" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="6">
+        <v>92</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="6">
+        <v>93</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="12">
+        <v>94</v>
+      </c>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="2" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="12">
+        <v>95</v>
+      </c>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="2" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B97" s="12">
+        <v>96</v>
+      </c>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="2" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98" s="6">
+        <v>97</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B91" s="7">
-        <v>90</v>
-      </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B92" s="7">
-        <v>91</v>
-      </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" s="7">
-        <v>92</v>
-      </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94" s="7">
-        <v>93</v>
-      </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" s="7">
-        <v>94</v>
-      </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96" s="7">
-        <v>95</v>
-      </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B97" s="7">
-        <v>96</v>
-      </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B98" s="7">
-        <v>97</v>
-      </c>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I98" xr:uid="{6DBECCEF-8E6B-4EFC-A4DA-D927E8C08114}"/>
+  <autoFilter ref="A1:I98" xr:uid="{6DBECCEF-8E6B-4EFC-A4DA-D927E8C08114}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Drop NA"/>
+        <filter val="Drop NA, get dummies"/>
+        <filter val="Drop NA, map 1-4"/>
+        <filter val="Drop No Answer, get dummies"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Masculinity_Data_Dictionary.xlsx
+++ b/Masculinity_Data_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stephanie\GA Final Project\Masculinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3AF6900E-6A3E-4CB6-8EFE-6C2B9E32A312}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CDD12E8A-38F2-42D7-9FDE-D3E095D592A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8745" xr2:uid="{17B072F3-1DFB-4E60-B900-748577D567B2}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="188">
   <si>
     <t>StartDate</t>
   </si>
@@ -487,9 +487,6 @@
     <t>Num N/A</t>
   </si>
   <si>
-    <t>Drop NA</t>
-  </si>
-  <si>
     <t>In which of the following ways would you say it's an advantage to be a man at work right now?</t>
   </si>
   <si>
@@ -596,6 +593,9 @@
   </si>
   <si>
     <t>Drop NA, map 1-4</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -1033,20 +1033,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B39A8F8-4641-4AC1-BC63-6701DACE289A}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="6" width="4.140625" customWidth="1"/>
     <col min="7" max="7" width="65.5703125" customWidth="1"/>
     <col min="8" max="8" width="68.140625" style="2" customWidth="1"/>
   </cols>
@@ -1056,13 +1055,13 @@
         <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>149</v>
@@ -1080,7 +1079,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1088,10 +1087,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1099,7 +1101,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1113,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>140</v>
@@ -1122,7 +1127,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>111</v>
@@ -1142,13 +1147,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>113</v>
@@ -1157,7 +1162,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1168,13 +1173,13 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>115</v>
@@ -1183,7 +1188,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1194,13 +1199,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>115</v>
@@ -1209,7 +1214,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1220,13 +1225,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>115</v>
@@ -1235,7 +1240,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1246,13 +1251,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>115</v>
@@ -1261,7 +1266,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1272,13 +1277,13 @@
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>115</v>
@@ -1287,7 +1292,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1298,13 +1303,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>115</v>
@@ -1324,13 +1329,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>98</v>
@@ -1350,13 +1355,13 @@
         <v>7</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>99</v>
@@ -1376,13 +1381,13 @@
         <v>7</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>100</v>
@@ -1402,13 +1407,13 @@
         <v>7</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>101</v>
@@ -1428,13 +1433,13 @@
         <v>7</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>102</v>
@@ -1454,13 +1459,13 @@
         <v>7</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>103</v>
@@ -1480,13 +1485,13 @@
         <v>7</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>104</v>
@@ -1506,13 +1511,13 @@
         <v>7</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>105</v>
@@ -1532,13 +1537,13 @@
         <v>7</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>106</v>
@@ -1558,13 +1563,13 @@
         <v>7</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>107</v>
@@ -1584,13 +1589,13 @@
         <v>7</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>108</v>
@@ -1610,13 +1615,13 @@
         <v>7</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>109</v>
@@ -1625,7 +1630,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1636,13 +1641,13 @@
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>124</v>
@@ -1651,7 +1656,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -1662,13 +1667,13 @@
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>124</v>
@@ -1677,7 +1682,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1688,13 +1693,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>124</v>
@@ -1703,7 +1708,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -1714,13 +1719,13 @@
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>124</v>
@@ -1729,7 +1734,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -1740,13 +1745,13 @@
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>124</v>
@@ -1755,7 +1760,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1766,13 +1771,13 @@
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>124</v>
@@ -1781,7 +1786,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -1792,13 +1797,13 @@
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>124</v>
@@ -1807,7 +1812,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -1818,13 +1823,13 @@
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>124</v>
@@ -1833,7 +1838,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -1844,13 +1849,13 @@
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>124</v>
@@ -1859,7 +1864,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -1870,13 +1875,13 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>124</v>
@@ -1885,7 +1890,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -1896,13 +1901,13 @@
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>124</v>
@@ -1911,7 +1916,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -1922,13 +1927,13 @@
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>124</v>
@@ -1937,7 +1942,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="9" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>34</v>
       </c>
@@ -1948,10 +1953,10 @@
         <v>9</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>137</v>
@@ -1960,7 +1965,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -1971,16 +1976,16 @@
         <v>10</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -1991,16 +1996,16 @@
         <v>10</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -2011,16 +2016,16 @@
         <v>10</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -2031,18 +2036,18 @@
         <v>10</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B41" s="2">
         <v>40</v>
@@ -2051,16 +2056,16 @@
         <v>10</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -2071,16 +2076,16 @@
         <v>10</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -2091,16 +2096,16 @@
         <v>10</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>42</v>
       </c>
@@ -2111,18 +2116,18 @@
         <v>10</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -2133,16 +2138,16 @@
         <v>11</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -2153,16 +2158,16 @@
         <v>11</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -2173,16 +2178,16 @@
         <v>11</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -2193,16 +2198,16 @@
         <v>11</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -2213,16 +2218,16 @@
         <v>11</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>48</v>
       </c>
@@ -2233,20 +2238,20 @@
         <v>12</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
     </row>
-    <row r="51" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -2257,16 +2262,16 @@
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -2277,16 +2282,16 @@
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -2297,16 +2302,16 @@
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -2317,16 +2322,16 @@
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -2337,16 +2342,16 @@
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
@@ -2357,16 +2362,16 @@
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>55</v>
       </c>
@@ -2377,21 +2382,21 @@
         <v>13</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>139</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B58" s="2">
         <v>57</v>
@@ -2400,16 +2405,16 @@
         <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>77</v>
       </c>
@@ -2420,7 +2425,7 @@
         <v>15</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>143</v>
@@ -2440,10 +2445,10 @@
         <v>17</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2460,13 +2465,13 @@
         <v>140</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>60</v>
       </c>
@@ -2482,10 +2487,10 @@
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>61</v>
       </c>
@@ -2501,10 +2506,10 @@
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>62</v>
       </c>
@@ -2520,10 +2525,10 @@
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>63</v>
       </c>
@@ -2539,10 +2544,10 @@
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>64</v>
       </c>
@@ -2558,10 +2563,10 @@
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>65</v>
       </c>
@@ -2577,10 +2582,10 @@
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>66</v>
       </c>
@@ -2596,10 +2601,10 @@
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
@@ -2613,13 +2618,13 @@
         <v>140</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
@@ -2633,10 +2638,10 @@
         <v>140</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
@@ -2650,10 +2655,10 @@
         <v>140</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
@@ -2667,10 +2672,10 @@
         <v>140</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
@@ -2684,10 +2689,10 @@
         <v>140</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
@@ -2701,10 +2706,10 @@
         <v>140</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
@@ -2718,10 +2723,10 @@
         <v>140</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
@@ -2735,10 +2740,10 @@
         <v>140</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
@@ -2752,10 +2757,10 @@
         <v>140</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
@@ -2769,10 +2774,10 @@
         <v>140</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>147</v>
       </c>
@@ -2787,7 +2792,7 @@
         <v>140</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2804,10 +2809,10 @@
         <v>140</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" s="6" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>79</v>
       </c>
@@ -2821,10 +2826,10 @@
         <v>140</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" s="6" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>80</v>
       </c>
@@ -2838,10 +2843,10 @@
         <v>140</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="6" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>81</v>
       </c>
@@ -2855,10 +2860,10 @@
         <v>140</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>82</v>
       </c>
@@ -2874,10 +2879,10 @@
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
@@ -2888,10 +2893,10 @@
         <v>140</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
@@ -2902,10 +2907,10 @@
         <v>140</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
@@ -2916,10 +2921,10 @@
         <v>140</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>86</v>
       </c>
@@ -2930,10 +2935,10 @@
         <v>140</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>87</v>
       </c>
@@ -2944,10 +2949,10 @@
         <v>140</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>88</v>
       </c>
@@ -2964,7 +2969,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>89</v>
       </c>
@@ -2981,7 +2986,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>90</v>
       </c>
@@ -2998,7 +3003,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>91</v>
       </c>
@@ -3015,7 +3020,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>92</v>
       </c>
@@ -3046,10 +3051,10 @@
       </c>
       <c r="F95" s="12"/>
       <c r="G95" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" s="2" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>94</v>
       </c>
@@ -3063,10 +3068,10 @@
       </c>
       <c r="F96" s="12"/>
       <c r="G96" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" s="2" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>82</v>
       </c>
@@ -3080,10 +3085,10 @@
       </c>
       <c r="F97" s="12"/>
       <c r="G97" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="2" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>95</v>
       </c>
@@ -3101,16 +3106,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I98" xr:uid="{6DBECCEF-8E6B-4EFC-A4DA-D927E8C08114}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Drop NA"/>
-        <filter val="Drop NA, get dummies"/>
-        <filter val="Drop NA, map 1-4"/>
-        <filter val="Drop No Answer, get dummies"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Masculinity_Data_Dictionary.xlsx
+++ b/Masculinity_Data_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stephanie\GA Final Project\Masculinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CDD12E8A-38F2-42D7-9FDE-D3E095D592A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{057D045B-7A4A-4F5A-B987-A8E0ADD3E32C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8745" xr2:uid="{17B072F3-1DFB-4E60-B900-748577D567B2}"/>
   </bookViews>
@@ -577,9 +577,6 @@
     <t>Fill NA with mode, get dummies</t>
   </si>
   <si>
-    <t>Fill NA with Other, get dummies</t>
-  </si>
-  <si>
     <t>Fill NA with No children, get dummies</t>
   </si>
   <si>
@@ -596,6 +593,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Get dummies</t>
   </si>
 </sst>
 </file>
@@ -1035,18 +1035,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B39A8F8-4641-4AC1-BC63-6701DACE289A}">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="4.140625" customWidth="1"/>
-    <col min="7" max="7" width="65.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
     <col min="8" max="8" width="68.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1090,7 +1091,7 @@
         <v>168</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1104,7 +1105,7 @@
         <v>168</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1127,7 +1128,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>111</v>
@@ -1153,7 +1154,7 @@
         <v>140</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>113</v>
@@ -2893,7 +2894,7 @@
         <v>140</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2921,7 +2922,7 @@
         <v>140</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2932,7 +2933,7 @@
         <v>87</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>174</v>
@@ -2949,7 +2950,7 @@
         <v>140</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3068,7 +3069,7 @@
       </c>
       <c r="F96" s="12"/>
       <c r="G96" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3085,7 +3086,7 @@
       </c>
       <c r="F97" s="12"/>
       <c r="G97" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/Masculinity_Data_Dictionary.xlsx
+++ b/Masculinity_Data_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stephanie\GA Final Project\Masculinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{057D045B-7A4A-4F5A-B987-A8E0ADD3E32C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E5732E15-5B2D-4C0F-B448-73BBD8E44819}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8745" xr2:uid="{17B072F3-1DFB-4E60-B900-748577D567B2}"/>
   </bookViews>
@@ -1036,8 +1036,8 @@
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
